--- a/import/prep/excel_original_receipt/59-3ทะเบียนคุมใบแจ้งหนี้+ใบเสร็จ มิย59 (1-31สค59).xlsx
+++ b/import/prep/excel_original_receipt/59-3ทะเบียนคุมใบแจ้งหนี้+ใบเสร็จ มิย59 (1-31สค59).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jirapatmalai/Works/WMA201AM1/import/prep/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFB7E31-4A22-8441-BAAF-385CC75D31CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5777ED9-5C18-354B-9B5C-7358AF82EEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20440" yWindow="500" windowWidth="33020" windowHeight="19960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ทะเบียนคุมใบแจ้งหนี้ ประเภท 2" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6528" uniqueCount="3845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6527" uniqueCount="3845">
   <si>
     <t>เลขที่ผู้ใช้น้ำ</t>
   </si>
@@ -11611,7 +11611,7 @@
     <numFmt numFmtId="164" formatCode="&quot;฿&quot;#,##0.00;\-&quot;฿&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="_-&quot;฿&quot;* #,##0.00_-;\-&quot;฿&quot;* #,##0.00_-;_-&quot;฿&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -11699,7 +11699,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11727,6 +11727,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11933,7 +11939,7 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -12098,7 +12104,7 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12409,6 +12415,24 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12430,9 +12454,6 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -12444,21 +12465,6 @@
     </xf>
     <xf numFmtId="166" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12472,6 +12478,33 @@
     <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -61999,8 +62032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L310" sqref="L310"/>
+    <sheetView topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -66161,8 +66194,8 @@
       <c r="B89" s="4">
         <v>5930000689</v>
       </c>
-      <c r="C89" s="119" t="s">
-        <v>1976</v>
+      <c r="C89" s="119">
+        <v>183284</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>1977</v>
@@ -76730,8 +76763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView topLeftCell="D92" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -76757,24 +76790,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
       <c r="Q1" s="158"/>
       <c r="R1" s="140"/>
     </row>
@@ -76803,19 +76836,19 @@
       <c r="R2" s="145"/>
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="194" t="s">
+      <c r="D3" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="187" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="137"/>
@@ -76825,41 +76858,41 @@
       <c r="H3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="199" t="s">
+      <c r="I3" s="188" t="s">
         <v>3585</v>
       </c>
-      <c r="J3" s="197" t="s">
+      <c r="J3" s="202" t="s">
         <v>3584</v>
       </c>
-      <c r="K3" s="188" t="s">
+      <c r="K3" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="195" t="s">
+      <c r="M3" s="200" t="s">
         <v>3644</v>
       </c>
-      <c r="N3" s="201" t="s">
+      <c r="N3" s="190" t="s">
         <v>3586</v>
       </c>
       <c r="O3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="192" t="s">
+      <c r="P3" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="203" t="s">
+      <c r="Q3" s="192" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="141"/>
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="194"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="138"/>
       <c r="G4" s="26" t="s">
         <v>10</v>
@@ -76867,17 +76900,17 @@
       <c r="H4" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="200"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="189"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="202"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="191"/>
       <c r="O4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="203"/>
+      <c r="P4" s="199"/>
+      <c r="Q4" s="192"/>
       <c r="R4" s="141"/>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -84425,8 +84458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -84449,24 +84482,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
       <c r="Q1" s="70"/>
       <c r="R1" s="146"/>
     </row>
@@ -84495,19 +84528,19 @@
       <c r="R2" s="147"/>
     </row>
     <row r="3" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="194" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="194" t="s">
+      <c r="D3" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="187" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="137"/>
@@ -84520,25 +84553,25 @@
       <c r="I3" s="177" t="s">
         <v>3585</v>
       </c>
-      <c r="J3" s="197" t="s">
+      <c r="J3" s="202" t="s">
         <v>3584</v>
       </c>
       <c r="K3" s="206" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="195" t="s">
+      <c r="M3" s="200" t="s">
         <v>3644</v>
       </c>
-      <c r="N3" s="201" t="s">
+      <c r="N3" s="190" t="s">
         <v>3586</v>
       </c>
       <c r="O3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="192" t="s">
+      <c r="P3" s="198" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="204" t="s">
@@ -84547,11 +84580,11 @@
       <c r="R3" s="141"/>
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="194"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
       <c r="F4" s="138"/>
       <c r="G4" s="26" t="s">
         <v>10</v>
@@ -84560,15 +84593,15 @@
         <v>35</v>
       </c>
       <c r="I4" s="178"/>
-      <c r="J4" s="198"/>
+      <c r="J4" s="203"/>
       <c r="K4" s="207"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="196"/>
-      <c r="N4" s="202"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="191"/>
       <c r="O4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="193"/>
+      <c r="P4" s="199"/>
       <c r="Q4" s="205"/>
       <c r="R4" s="141"/>
     </row>
@@ -85038,61 +85071,61 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
+    <row r="13" spans="1:18" s="218" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="208">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="209" t="s">
         <v>3643</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="210" t="s">
         <v>3652</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="209" t="s">
         <v>1976</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="211" t="s">
         <v>1977</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="211" t="s">
         <v>3558</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="212" t="s">
         <v>2343</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="213">
         <v>907.36</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="213">
         <v>59.36</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="214">
         <v>112</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="215">
         <f t="shared" si="0"/>
         <v>448</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="215">
         <f t="shared" si="2"/>
         <v>31.360000000000003</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="213">
         <f>448+31.36</f>
         <v>479.36</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="213">
         <v>90.72</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="216">
         <f t="shared" si="1"/>
         <v>1386.72</v>
       </c>
-      <c r="P13" s="29">
+      <c r="P13" s="216">
         <v>1386.75</v>
       </c>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="34" t="s">
+      <c r="Q13" s="216"/>
+      <c r="R13" s="217" t="s">
         <v>3659</v>
       </c>
     </row>
@@ -87610,11 +87643,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -87624,6 +87652,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
